--- a/Tidsplan/Tidsplan, semester 3.xlsx
+++ b/Tidsplan/Tidsplan, semester 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpkon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bitious\Documents\Engineering\IHA_3_Semester_Project\Tidsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,44 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Fase/uge</t>
   </si>
   <si>
-    <t>Kravspecifikation</t>
-  </si>
-  <si>
-    <t>Accepttestspecifikation</t>
-  </si>
-  <si>
     <t>Projektformulering</t>
   </si>
   <si>
     <t>Tidsplan/Samarbejdskontrakt</t>
   </si>
   <si>
-    <t>Arkitekturfase:</t>
-  </si>
-  <si>
-    <t>Hardware:</t>
-  </si>
-  <si>
-    <t>Software:</t>
-  </si>
-  <si>
-    <t>Design:</t>
-  </si>
-  <si>
-    <t>Implementeringsfasen:</t>
-  </si>
-  <si>
-    <t>Accepttest</t>
-  </si>
-  <si>
-    <t>Deadline:</t>
-  </si>
-  <si>
     <t>Arbejde i gang</t>
   </si>
   <si>
@@ -93,13 +66,28 @@
   </si>
   <si>
     <t>Tidsplan for Gruppe 3</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,19 +127,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,8 +182,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -252,49 +271,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -602,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,12 +677,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="50"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -629,46 +720,46 @@
       <c r="C3" s="1">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="34">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="34">
         <v>9</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="34">
         <v>10</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="30">
         <v>11</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="30">
         <v>12</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="30">
         <v>13</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="26">
         <v>14</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="26">
         <v>15</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="26">
         <v>16</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="22">
         <v>17</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="22">
         <v>18</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="22">
         <v>19</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>20</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>21</v>
       </c>
       <c r="R3" s="1">
@@ -686,383 +777,355 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" s="17" t="s">
+        <v>1</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A6" s="17"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="29"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A19" s="17"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1075,10 +1138,10 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="5"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -1120,12 +1183,12 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="31"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="17"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
@@ -1179,7 +1242,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1202,9 +1265,9 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1227,9 +1290,9 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="19"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1252,47 +1315,52 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
